--- a/biology/Histoire de la zoologie et de la botanique/Hugh_Edwin_Strickland/Hugh_Edwin_Strickland.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hugh_Edwin_Strickland/Hugh_Edwin_Strickland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh Edwin Strickland est un ornithologue et un géologue britannique, né le 2 mars 1811 à Reighton dans le Yorkshire de l'Est et mort le 14 septembre 1853.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le petit-fils de George Strickland (1729-1808), 5e baronnet de Boynton, qui lui inculque très tôt le goût de l’histoire naturelle.
 Il fait ses études à l’Oriel College d’Oxford et suit le cours d’anatomie de John Kidd (1775-1851) et de géologie de William Buckland (1784-1856). Il se passionne alors pour la zoologie et la géologie. Il obtient un B.A. en 1831 et un M.A. en 1832.
